--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_030.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_030.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="153">
   <si>
     <t>Sezione</t>
   </si>
@@ -291,6 +291,81 @@
   </si>
   <si>
     <t>evento.intestatari[0]</t>
+  </si>
+  <si>
+    <t>Atto nascita intestatario</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>evento.eventoCollegato</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
   </si>
   <si>
     <t>Atto da trascrivere</t>
@@ -454,17 +529,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H117"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.3984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="32.41796875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="22.59765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2754,7 +2829,7 @@
         <v>94</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>95</v>
@@ -2766,7 +2841,7 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
     </row>
     <row r="101">
@@ -2774,22 +2849,22 @@
         <v>93</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
     </row>
     <row r="102">
@@ -2797,22 +2872,22 @@
         <v>93</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
     </row>
     <row r="103">
@@ -2820,7 +2895,7 @@
         <v>93</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>33</v>
@@ -2829,13 +2904,13 @@
         <v>95</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
     </row>
     <row r="104">
@@ -2843,22 +2918,22 @@
         <v>93</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
     </row>
     <row r="105">
@@ -2866,7 +2941,7 @@
         <v>93</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>33</v>
@@ -2875,13 +2950,13 @@
         <v>95</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
     </row>
     <row r="106">
@@ -2889,7 +2964,7 @@
         <v>93</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>33</v>
@@ -2898,50 +2973,50 @@
         <v>95</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>111</v>
@@ -2950,12 +3025,12 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>112</v>
@@ -2964,7 +3039,7 @@
         <v>33</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>113</v>
@@ -2973,21 +3048,21 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>115</v>
@@ -2996,12 +3071,12 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>116</v>
@@ -3010,7 +3085,7 @@
         <v>33</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>117</v>
@@ -3019,24 +3094,24 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3047,19 +3122,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3073,16 +3148,16 @@
         <v>118</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>120</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3096,16 +3171,16 @@
         <v>118</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>120</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3119,7 +3194,7 @@
         <v>118</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
@@ -3128,7 +3203,7 @@
         <v>120</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3142,21 +3217,297 @@
         <v>118</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>120</v>
       </c>
       <c r="E117" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F117" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="2" t="s">
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_030.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_030.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="155">
   <si>
     <t>Sezione</t>
   </si>
@@ -291,6 +291,12 @@
   </si>
   <si>
     <t>evento.intestatari[0]</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Atto nascita intestatario</t>
@@ -529,14 +535,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:H130"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="22.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
@@ -2823,53 +2829,53 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="C100" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E101" s="2" t="s">
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>100</v>
@@ -2878,7 +2884,7 @@
         <v>33</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>101</v>
@@ -2887,12 +2893,12 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>102</v>
@@ -2901,7 +2907,7 @@
         <v>33</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>103</v>
@@ -2910,12 +2916,12 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>104</v>
@@ -2924,7 +2930,7 @@
         <v>33</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>105</v>
@@ -2933,12 +2939,12 @@
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>106</v>
@@ -2947,44 +2953,44 @@
         <v>33</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>109</v>
@@ -2993,44 +2999,44 @@
         <v>33</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>112</v>
@@ -3039,7 +3045,7 @@
         <v>33</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>113</v>
@@ -3048,12 +3054,12 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>114</v>
@@ -3062,7 +3068,7 @@
         <v>33</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>115</v>
@@ -3071,12 +3077,12 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>116</v>
@@ -3085,7 +3091,7 @@
         <v>33</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>117</v>
@@ -3094,44 +3100,44 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="C112" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>123</v>
@@ -3145,7 +3151,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>124</v>
@@ -3154,7 +3160,7 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>125</v>
@@ -3168,19 +3174,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3191,16 +3197,16 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>128</v>
@@ -3214,16 +3220,16 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>130</v>
@@ -3237,7 +3243,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>131</v>
@@ -3246,7 +3252,7 @@
         <v>33</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>132</v>
@@ -3260,19 +3266,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D119" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3283,19 +3289,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3306,16 +3312,16 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>138</v>
@@ -3329,16 +3335,16 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>140</v>
@@ -3352,16 +3358,16 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>142</v>
@@ -3375,19 +3381,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3398,19 +3404,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3421,19 +3427,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3444,16 +3450,16 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>148</v>
@@ -3467,7 +3473,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>149</v>
@@ -3476,7 +3482,7 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>150</v>
@@ -3490,7 +3496,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>151</v>
@@ -3499,7 +3505,7 @@
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>152</v>
@@ -3508,6 +3514,29 @@
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_030.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_030.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="153">
   <si>
     <t>Sezione</t>
   </si>
@@ -291,12 +291,6 @@
   </si>
   <si>
     <t>evento.intestatari[0]</t>
-  </si>
-  <si>
-    <t>Residenza al momento dell'evento originario</t>
-  </si>
-  <si>
-    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Atto nascita intestatario</t>
@@ -535,14 +529,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H130"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="22.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
@@ -2829,53 +2823,53 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D101" s="2" t="s">
+      <c r="E101" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>100</v>
@@ -2884,7 +2878,7 @@
         <v>33</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>101</v>
@@ -2893,12 +2887,12 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>102</v>
@@ -2907,7 +2901,7 @@
         <v>33</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>103</v>
@@ -2916,12 +2910,12 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>104</v>
@@ -2930,7 +2924,7 @@
         <v>33</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>105</v>
@@ -2939,12 +2933,12 @@
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>106</v>
@@ -2953,44 +2947,44 @@
         <v>33</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="E106" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D106" s="2" t="s">
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>109</v>
@@ -2999,44 +2993,44 @@
         <v>33</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="E108" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D108" s="2" t="s">
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>112</v>
@@ -3045,7 +3039,7 @@
         <v>33</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>113</v>
@@ -3054,12 +3048,12 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>114</v>
@@ -3068,7 +3062,7 @@
         <v>33</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>115</v>
@@ -3077,12 +3071,12 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>116</v>
@@ -3091,7 +3085,7 @@
         <v>33</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>117</v>
@@ -3100,44 +3094,44 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>123</v>
@@ -3151,7 +3145,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>124</v>
@@ -3160,7 +3154,7 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>125</v>
@@ -3174,19 +3168,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="E115" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3197,16 +3191,16 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>128</v>
@@ -3220,16 +3214,16 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>130</v>
@@ -3243,7 +3237,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>131</v>
@@ -3252,7 +3246,7 @@
         <v>33</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>132</v>
@@ -3266,19 +3260,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3289,19 +3283,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3312,16 +3306,16 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>138</v>
@@ -3335,16 +3329,16 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>140</v>
@@ -3358,16 +3352,16 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>142</v>
@@ -3381,19 +3375,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3404,19 +3398,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3427,19 +3421,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3450,16 +3444,16 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>148</v>
@@ -3473,7 +3467,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>149</v>
@@ -3482,7 +3476,7 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>150</v>
@@ -3496,7 +3490,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>151</v>
@@ -3505,7 +3499,7 @@
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>152</v>
@@ -3514,29 +3508,6 @@
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_030.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_030.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="159">
   <si>
     <t>Sezione</t>
   </si>
@@ -123,6 +123,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -535,7 +547,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H130"/>
+  <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -857,7 +869,7 @@
         <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>28</v>
@@ -880,7 +892,7 @@
         <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>28</v>
@@ -926,7 +938,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>28</v>
@@ -949,7 +961,7 @@
         <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>28</v>
@@ -1294,7 +1306,7 @@
         <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>28</v>
@@ -1340,7 +1352,7 @@
         <v>79</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>28</v>
@@ -1449,19 +1461,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1472,19 +1484,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1495,19 +1507,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1518,19 +1530,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1541,19 +1553,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1564,19 +1576,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1587,19 +1599,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1610,19 +1622,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1633,19 +1645,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1656,19 +1668,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1679,19 +1691,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1702,19 +1714,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1725,19 +1737,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1748,19 +1760,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1771,19 +1783,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1794,19 +1806,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1817,19 +1829,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1840,19 +1852,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1863,19 +1875,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1886,19 +1898,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1909,19 +1921,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1932,19 +1944,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1955,19 +1967,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1978,19 +1990,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2001,19 +2013,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2024,19 +2036,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2047,19 +2059,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2070,19 +2082,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2093,19 +2105,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2116,19 +2128,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2139,19 +2151,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2162,19 +2174,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2185,19 +2197,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2208,19 +2220,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2231,19 +2243,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2254,19 +2266,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2277,19 +2289,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2300,19 +2312,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2323,19 +2335,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2346,19 +2358,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2369,19 +2381,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2392,19 +2404,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2415,19 +2427,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2438,19 +2450,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2461,19 +2473,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2484,19 +2496,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2507,19 +2519,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2530,19 +2542,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2553,19 +2565,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2576,19 +2588,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2599,19 +2611,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2622,19 +2634,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2645,19 +2657,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2668,19 +2680,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2691,19 +2703,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2714,19 +2726,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2737,19 +2749,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2760,19 +2772,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2783,19 +2795,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2806,19 +2818,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2829,19 +2841,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2855,22 +2867,22 @@
         <v>95</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E101" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102">
@@ -2878,22 +2890,22 @@
         <v>95</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103">
@@ -2901,22 +2913,22 @@
         <v>95</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104">
@@ -2924,22 +2936,22 @@
         <v>95</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105">
@@ -2947,22 +2959,22 @@
         <v>95</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106">
@@ -2970,315 +2982,315 @@
         <v>95</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3289,19 +3301,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3312,19 +3324,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3335,19 +3347,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>139</v>
+        <v>55</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3358,19 +3370,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3381,19 +3393,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="C124" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3404,19 +3416,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3427,19 +3439,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3450,19 +3462,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3473,19 +3485,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3496,19 +3508,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3519,24 +3531,162 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E130" s="2" t="s">
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" s="2" t="s">
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>19</v>
       </c>
     </row>
